--- a/Ames_MissingData.xlsx
+++ b/Ames_MissingData.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hari Docs\Dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Data_Science\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="93">
   <si>
     <t>Id</t>
   </si>
@@ -294,6 +294,15 @@
   </si>
   <si>
     <t>To be Dropped</t>
+  </si>
+  <si>
+    <t>Drop</t>
+  </si>
+  <si>
+    <t>TotalSF</t>
+  </si>
+  <si>
+    <t>TotalRooms</t>
   </si>
 </sst>
 </file>
@@ -317,12 +326,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -337,9 +352,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -620,87 +636,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E82"/>
+  <dimension ref="A2:H83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="G3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>44</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>57</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="G4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>69</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>99</v>
-      </c>
-      <c r="D4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>93</v>
       </c>
       <c r="D5" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>93</v>
+      </c>
+      <c r="D6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>31</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="D8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>32</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -709,42 +734,54 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10">
         <v>32</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
       </c>
       <c r="D10" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C11">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12">
+        <v>88</v>
+      </c>
+      <c r="D12" t="s">
+        <v>85</v>
+      </c>
+      <c r="G12" t="s">
+        <v>90</v>
+      </c>
+      <c r="H12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>33</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="D12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>35</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -753,163 +790,172 @@
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>47</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>58</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>87</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E15" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>48</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>94</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>30</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <v>3</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>37</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <v>8</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="G18" t="s">
+        <v>90</v>
+      </c>
+      <c r="H18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>68</v>
       </c>
-      <c r="C22">
+      <c r="C23">
         <v>84</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D23" t="s">
         <v>87</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E23" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>73</v>
       </c>
-      <c r="B27">
+      <c r="B28">
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>57</v>
       </c>
-      <c r="B28">
+      <c r="B29">
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>56</v>
       </c>
-      <c r="C29">
+      <c r="C30">
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>49</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D32" t="s">
         <v>87</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E32" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33">
-        <v>5</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C34">
         <v>5</v>
@@ -917,15 +963,15 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>64</v>
-      </c>
-      <c r="B35">
+        <v>61</v>
+      </c>
+      <c r="C35">
         <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B36">
         <v>5</v>
@@ -933,7 +979,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B37">
         <v>5</v>
@@ -941,7 +987,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B38">
         <v>5</v>
@@ -949,7 +995,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B39">
         <v>5</v>
@@ -957,126 +1003,123 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>59</v>
+      </c>
+      <c r="B40">
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>50</v>
-      </c>
-      <c r="C41">
-        <v>63</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>39</v>
+        <v>50</v>
+      </c>
+      <c r="C42">
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>3</v>
-      </c>
-      <c r="B52">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>7</v>
+        <v>3</v>
+      </c>
+      <c r="B53">
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>45</v>
-      </c>
-      <c r="C54">
-        <v>99</v>
-      </c>
-      <c r="D54" t="s">
-        <v>84</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>26</v>
-      </c>
-      <c r="B55">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="C55">
-        <v>60</v>
+        <v>99</v>
+      </c>
+      <c r="D55" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B56">
         <v>1</v>
       </c>
+      <c r="C56">
+        <v>60</v>
+      </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="B57">
-        <v>96</v>
-      </c>
-      <c r="D57" t="s">
-        <v>84</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>75</v>
-      </c>
-      <c r="C58">
+        <v>74</v>
+      </c>
+      <c r="B58">
         <v>96</v>
       </c>
       <c r="D58" t="s">
@@ -1085,160 +1128,183 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>76</v>
+        <v>75</v>
+      </c>
+      <c r="C59">
+        <v>96</v>
+      </c>
+      <c r="D59" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>1</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>67</v>
-      </c>
-      <c r="C63">
-        <v>44</v>
-      </c>
-      <c r="D63" t="s">
-        <v>87</v>
-      </c>
-      <c r="E63" t="s">
-        <v>88</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>67</v>
+      </c>
+      <c r="C64">
+        <v>44</v>
+      </c>
+      <c r="D64" t="s">
+        <v>87</v>
+      </c>
+      <c r="E64" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>71</v>
       </c>
-      <c r="C67">
-        <v>100</v>
-      </c>
-      <c r="D67" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>72</v>
-      </c>
-      <c r="B68">
+      <c r="C68">
         <v>100</v>
       </c>
       <c r="D68" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>72</v>
+      </c>
+      <c r="B69">
+        <v>100</v>
+      </c>
+      <c r="D69" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>70</v>
       </c>
-      <c r="C74">
+      <c r="C75">
         <v>91</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D75" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>38</v>
       </c>
-      <c r="C76">
+      <c r="C77">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="G77" t="s">
+        <v>90</v>
+      </c>
+      <c r="H77" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="G78" t="s">
+        <v>90</v>
+      </c>
+      <c r="H78" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>66</v>
       </c>
-      <c r="C79">
+      <c r="C80">
         <v>52</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:A81">
-    <sortCondition ref="A1:A81"/>
+  <sortState ref="A2:A82">
+    <sortCondition ref="A2:A82"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
